--- a/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
+++ b/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
@@ -337,7 +337,7 @@
     <t>*#.exclusion_headers</t>
   </si>
   <si>
-    <t>id,intensity,intensity%type,intensity%units,resonance_assignment,entity.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
+    <t>id,intensity,intensity%type,intensity%units,resonance_assignment,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
   </si>
   <si>
     <t>intensity%type</t>

--- a/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
+++ b/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="141">
   <si>
     <t>#tags</t>
   </si>
@@ -193,12 +193,12 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Extended</t>
+  </si>
+  <si>
     <t>Metabolites</t>
   </si>
   <si>
-    <t>Extended</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -331,13 +331,13 @@
     <t>#.collate</t>
   </si>
   <si>
-    <t>resonance_assignment</t>
+    <t>assignment</t>
   </si>
   <si>
     <t>*#.exclusion_headers</t>
   </si>
   <si>
-    <t>id,intensity,intensity%type,intensity%units,resonance_assignment,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
+    <t>id,intensity,intensity%type,intensity%units,assignment,assignment%method,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
   </si>
   <si>
     <t>intensity%type</t>
@@ -361,15 +361,15 @@
     <t>*#.headers</t>
   </si>
   <si>
-    <t>"Metabolite"=resonance_assignment,entity.id=intensity</t>
-  </si>
-  <si>
-    <t>"Metabolite"=resonance_assignment,"base_inchi"=base_inchi,"representative_inchi"=representative_inchi,"isotopic_inchi"=isotopic_inchi,"peak_description"=peak_description,"peak_pattern"=peak_pattern,"proton_count"=proton_count,"transient_peak"=transient_peak,"transient_peak_type"=transient_peak%type</t>
+    <t>"Metabolite"=assignment,entity.id=intensity</t>
   </si>
   <si>
     <t>#.fields_to_headers</t>
   </si>
   <si>
+    <t>"Metabolite"=assignment</t>
+  </si>
+  <si>
     <t>#.table</t>
   </si>
   <si>
@@ -391,7 +391,13 @@
     <t>section</t>
   </si>
   <si>
-    <t>"Metabolite"=resonance_assignment,"sample_id"=entity.id</t>
+    <t>"Metabolite"=assignment,"sample_id"=entity.id</t>
+  </si>
+  <si>
+    <t>*#.optional_headers</t>
+  </si>
+  <si>
+    <t>assignment%method,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
   </si>
   <si>
     <t>measurement</t>
@@ -762,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,7 +816,7 @@
         <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
         <v>109</v>
@@ -830,7 +836,7 @@
         <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
         <v>110</v>
@@ -850,7 +856,7 @@
         <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
         <v>110</v>
@@ -870,7 +876,7 @@
         <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>110</v>
@@ -890,7 +896,7 @@
         <v>119</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
         <v>110</v>
@@ -1161,16 +1167,16 @@
         <v>111</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I29" t="s">
         <v>118</v>
       </c>
       <c r="J29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
         <v>109</v>
@@ -1193,16 +1199,16 @@
         <v>112</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I30" t="s">
         <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K30" t="s">
         <v>110</v>
@@ -1225,16 +1231,16 @@
         <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I31" t="s">
         <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K31" t="s">
         <v>110</v>
@@ -1257,16 +1263,16 @@
         <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I32" t="s">
         <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K32" t="s">
         <v>110</v>
@@ -1462,7 +1468,7 @@
         <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
         <v>109</v>
@@ -1482,7 +1488,7 @@
         <v>123</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G46" t="s">
         <v>110</v>
@@ -1502,7 +1508,7 @@
         <v>123</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
         <v>110</v>
@@ -1522,7 +1528,7 @@
         <v>123</v>
       </c>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G48" t="s">
         <v>110</v>
@@ -1579,16 +1585,16 @@
         <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I53" t="s">
         <v>118</v>
       </c>
       <c r="J53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K53" t="s">
         <v>109</v>
@@ -1614,13 +1620,13 @@
         <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I54" t="s">
         <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s">
         <v>110</v>
@@ -1646,13 +1652,13 @@
         <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I55" t="s">
         <v>119</v>
       </c>
       <c r="J55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s">
         <v>110</v>
@@ -1678,13 +1684,13 @@
         <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I56" t="s">
         <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K56" t="s">
         <v>110</v>
@@ -1707,7 +1713,7 @@
         <v>118</v>
       </c>
       <c r="F58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
         <v>109</v>
@@ -1727,7 +1733,7 @@
         <v>119</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
         <v>110</v>
@@ -1747,7 +1753,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G60" t="s">
         <v>110</v>
@@ -1767,7 +1773,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G61" t="s">
         <v>110</v>
@@ -1787,7 +1793,7 @@
         <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G62" t="s">
         <v>110</v>
@@ -1807,7 +1813,7 @@
         <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G63" t="s">
         <v>110</v>
@@ -1827,7 +1833,7 @@
         <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G64" t="s">
         <v>110</v>
@@ -1847,7 +1853,7 @@
         <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G65" t="s">
         <v>110</v>
@@ -1867,7 +1873,7 @@
         <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G66" t="s">
         <v>110</v>
@@ -1887,7 +1893,7 @@
         <v>119</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G67" t="s">
         <v>110</v>
@@ -1907,7 +1913,7 @@
         <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G68" t="s">
         <v>110</v>
@@ -1927,7 +1933,7 @@
         <v>119</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G69" t="s">
         <v>110</v>
@@ -1947,7 +1953,7 @@
         <v>119</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G70" t="s">
         <v>110</v>
@@ -1967,7 +1973,7 @@
         <v>119</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G71" t="s">
         <v>110</v>
@@ -1987,7 +1993,7 @@
         <v>119</v>
       </c>
       <c r="F72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G72" t="s">
         <v>110</v>
@@ -2007,7 +2013,7 @@
         <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G73" t="s">
         <v>110</v>
@@ -2027,7 +2033,7 @@
         <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G74" t="s">
         <v>110</v>
@@ -2050,10 +2056,10 @@
         <v>111</v>
       </c>
       <c r="F76" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H76" t="s">
         <v>118</v>
@@ -2062,7 +2068,7 @@
         <v>109</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2082,148 +2088,186 @@
         <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H77" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" t="s">
+        <v>137</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" t="s">
+        <v>111</v>
+      </c>
+      <c r="G79" t="s">
+        <v>133</v>
+      </c>
+      <c r="H79" t="s">
+        <v>135</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+      <c r="K79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" t="s">
+        <v>136</v>
+      </c>
+      <c r="I80" t="s">
+        <v>128</v>
+      </c>
+      <c r="J80" t="s">
+        <v>137</v>
+      </c>
+      <c r="K80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" t="s">
         <v>126</v>
       </c>
-      <c r="I77" t="s">
+      <c r="F82" t="s">
+        <v>111</v>
+      </c>
+      <c r="G82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H82" t="s">
         <v>135</v>
       </c>
-      <c r="J77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="B78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="I82" t="s">
+        <v>118</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+      <c r="K82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
         <v>105</v>
       </c>
-      <c r="D78" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" t="s">
-        <v>113</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" t="s">
+        <v>113</v>
+      </c>
+      <c r="G83" t="s">
         <v>105</v>
       </c>
-      <c r="G78" t="s">
-        <v>134</v>
-      </c>
-      <c r="H78" t="s">
-        <v>126</v>
-      </c>
-      <c r="I78" t="s">
-        <v>135</v>
-      </c>
-      <c r="J78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" t="s">
+      <c r="H83" t="s">
+        <v>136</v>
+      </c>
+      <c r="I83" t="s">
+        <v>128</v>
+      </c>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+      <c r="K83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
         <v>0</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
         <v>57</v>
       </c>
-      <c r="C80" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E80" t="s">
-        <v>114</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" t="s">
         <v>111</v>
       </c>
-      <c r="G80" t="s">
-        <v>131</v>
-      </c>
-      <c r="H80" t="s">
-        <v>133</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="E85" t="s">
         <v>118</v>
       </c>
-      <c r="J80" t="s">
+      <c r="F85" t="s">
         <v>109</v>
       </c>
-      <c r="K80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" t="s">
-        <v>112</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
-      <c r="H81" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81" t="s">
-        <v>126</v>
-      </c>
-      <c r="J81" t="s">
-        <v>135</v>
-      </c>
-      <c r="K81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="B84" t="s">
+    </row>
+    <row r="86" spans="1:11">
+      <c r="B86" t="s">
         <v>61</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>108</v>
       </c>
-      <c r="D84" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="D86" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+      <c r="F86" t="s">
         <v>110</v>
       </c>
     </row>

--- a/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
+++ b/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
@@ -337,7 +337,7 @@
     <t>*#.exclusion_headers</t>
   </si>
   <si>
-    <t>id,intensity,intensity%type,intensity%units,assignment,assignment%method,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
+    <t>id,intensity,intensity%type,intensity%units,assignment,assignment%method,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type,compound</t>
   </si>
   <si>
     <t>intensity%type</t>
@@ -397,7 +397,7 @@
     <t>*#.optional_headers</t>
   </si>
   <si>
-    <t>assignment%method,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type</t>
+    <t>assignment%method,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type,compound</t>
   </si>
   <si>
     <t>measurement</t>

--- a/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
+++ b/tests/test_convert/testing_files/main_dir/mwtab_nmr_conversion_directives_compare.xlsx
@@ -19,123 +19,123 @@
     <t>#tags</t>
   </si>
   <si>
+    <t>#METABOLOMICS WORKBENCH.id</t>
+  </si>
+  <si>
+    <t>STUDY_ID</t>
+  </si>
+  <si>
+    <t>ANALYSIS_ID</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>CREATED_ON</t>
+  </si>
+  <si>
+    <t>#PROJECT.id</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>PROJECT_SUMMARY</t>
+  </si>
+  <si>
+    <t>PROJECT_TITLE</t>
+  </si>
+  <si>
+    <t>#STUDY.id</t>
+  </si>
+  <si>
+    <t>STUDY_SUMMARY</t>
+  </si>
+  <si>
+    <t>STUDY_TITLE</t>
+  </si>
+  <si>
+    <t>#SUBJECT.id</t>
+  </si>
+  <si>
+    <t>SUBJECT_SPECIES</t>
+  </si>
+  <si>
+    <t>SUBJECT_TYPE</t>
+  </si>
+  <si>
+    <t>TAXONOMY_ID</t>
+  </si>
+  <si>
+    <t>#SUBJECT_SAMPLE_FACTORS.id</t>
+  </si>
+  <si>
+    <t>no_id_needed</t>
+  </si>
+  <si>
+    <t>#COLLECTION.id</t>
+  </si>
+  <si>
+    <t>COLLECTION_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>COLLECTION_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>COLLECTION_SUMMARY</t>
+  </si>
+  <si>
+    <t>SAMPLE_TYPE</t>
+  </si>
+  <si>
+    <t>#TREATMENT.id</t>
+  </si>
+  <si>
+    <t>TREATMENT_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>TREATMENT_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>TREATMENT_SUMMARY</t>
+  </si>
+  <si>
+    <t>#SAMPLEPREP.id</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_PROTOCOL_FILENAME</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_PROTOCOL_ID</t>
+  </si>
+  <si>
+    <t>SAMPLEPREP_SUMMARY</t>
+  </si>
+  <si>
     <t>#ANALYSIS.id</t>
   </si>
   <si>
     <t>ANALYSIS_TYPE</t>
   </si>
   <si>
-    <t>#COLLECTION.id</t>
-  </si>
-  <si>
-    <t>COLLECTION_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>COLLECTION_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>COLLECTION_SUMMARY</t>
-  </si>
-  <si>
-    <t>SAMPLE_TYPE</t>
-  </si>
-  <si>
-    <t>#METABOLOMICS WORKBENCH.id</t>
-  </si>
-  <si>
-    <t>ANALYSIS_ID</t>
-  </si>
-  <si>
-    <t>STUDY_ID</t>
-  </si>
-  <si>
-    <t>VERSION</t>
-  </si>
-  <si>
-    <t>CREATED_ON</t>
-  </si>
-  <si>
-    <t>#PROJECT.id</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>INSTITUTE</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
-    <t>PROJECT_SUMMARY</t>
-  </si>
-  <si>
-    <t>PROJECT_TITLE</t>
-  </si>
-  <si>
-    <t>#SAMPLEPREP.id</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>SAMPLEPREP_SUMMARY</t>
-  </si>
-  <si>
-    <t>#STUDY.id</t>
-  </si>
-  <si>
-    <t>STUDY_SUMMARY</t>
-  </si>
-  <si>
-    <t>STUDY_TITLE</t>
-  </si>
-  <si>
-    <t>#SUBJECT.id</t>
-  </si>
-  <si>
-    <t>SUBJECT_SPECIES</t>
-  </si>
-  <si>
-    <t>SUBJECT_TYPE</t>
-  </si>
-  <si>
-    <t>TAXONOMY_ID</t>
-  </si>
-  <si>
-    <t>#SUBJECT_SAMPLE_FACTORS.id</t>
-  </si>
-  <si>
-    <t>no_id_needed</t>
-  </si>
-  <si>
-    <t>#TREATMENT.id</t>
-  </si>
-  <si>
-    <t>TREATMENT_PROTOCOL_FILENAME</t>
-  </si>
-  <si>
-    <t>TREATMENT_PROTOCOL_ID</t>
-  </si>
-  <si>
-    <t>TREATMENT_SUMMARY</t>
-  </si>
-  <si>
     <t>#NM.id</t>
   </si>
   <si>
@@ -190,96 +190,96 @@
     <t>#NMR_METABOLITE_DATA.id</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>Data</t>
   </si>
   <si>
+    <t>Metabolites</t>
+  </si>
+  <si>
     <t>Extended</t>
   </si>
   <si>
-    <t>Metabolites</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
     <t>#.override</t>
   </si>
   <si>
+    <t>ST000000</t>
+  </si>
+  <si>
+    <t>AN000000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>#.code</t>
+  </si>
+  <si>
+    <t>str(datetime.datetime.now().date())</t>
+  </si>
+  <si>
+    <t>*#.fields</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>PI_email</t>
+  </si>
+  <si>
+    <t>PI_first_name</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>PI_last_name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>species_type</t>
+  </si>
+  <si>
+    <t>taxonomy_id</t>
+  </si>
+  <si>
+    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>#.delimiter</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
-    <t>*#.fields</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>AN000000</t>
-  </si>
-  <si>
-    <t>ST000000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>#.code</t>
-  </si>
-  <si>
-    <t>str(datetime.datetime.now().date())</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>PI_email</t>
-  </si>
-  <si>
-    <t>PI_first_name</t>
-  </si>
-  <si>
-    <t>institution</t>
-  </si>
-  <si>
-    <t>PI_last_name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>#.delimiter</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>species_type</t>
-  </si>
-  <si>
-    <t>taxonomy_id</t>
-  </si>
-  <si>
-    <t>mwtab_functions.create_subject_sample_factors(input_json)</t>
-  </si>
-  <si>
     <t>acquisition_time," ",acquisition_time%units</t>
   </si>
   <si>
@@ -328,6 +328,9 @@
     <t>water_suppression</t>
   </si>
   <si>
+    <t>intensity%type</t>
+  </si>
+  <si>
     <t>#.collate</t>
   </si>
   <si>
@@ -340,9 +343,6 @@
     <t>id,intensity,intensity%type,intensity%units,assignment,assignment%method,entity.id,protocol.id,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type,compound</t>
   </si>
   <si>
-    <t>intensity%type</t>
-  </si>
-  <si>
     <t>#.value_type</t>
   </si>
   <si>
@@ -352,66 +352,66 @@
     <t>#.required</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>*#.headers</t>
   </si>
   <si>
     <t>"Metabolite"=assignment,entity.id=intensity</t>
   </si>
   <si>
+    <t>"Metabolite"=assignment</t>
+  </si>
+  <si>
     <t>#.fields_to_headers</t>
   </si>
   <si>
-    <t>"Metabolite"=assignment</t>
-  </si>
-  <si>
     <t>#.table</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
     <t>protocol</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>#.for_each</t>
   </si>
   <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>section</t>
+    <t>measurement</t>
+  </si>
+  <si>
+    <t>*#.optional_headers</t>
+  </si>
+  <si>
+    <t>assignment%method,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type,compound</t>
   </si>
   <si>
     <t>"Metabolite"=assignment,"sample_id"=entity.id</t>
   </si>
   <si>
-    <t>*#.optional_headers</t>
-  </si>
-  <si>
-    <t>assignment%method,base_inchi,representative_inchi,isotopic_inchi,peak_description,peak_pattern,proton_count,transient_peak,transient_peak%type,compound</t>
-  </si>
-  <si>
-    <t>measurement</t>
-  </si>
-  <si>
     <t>#.test</t>
   </si>
   <si>
+    <t>type=subject</t>
+  </si>
+  <si>
     <t>type=collection</t>
   </si>
   <si>
-    <t>type=subject</t>
-  </si>
-  <si>
     <t>machine_type=NMR</t>
   </si>
   <si>
@@ -430,10 +430,10 @@
     <t>matrix</t>
   </si>
   <si>
+    <t>type=treatment</t>
+  </si>
+  <si>
     <t>type=sample_prep</t>
-  </si>
-  <si>
-    <t>type=treatment</t>
   </si>
   <si>
     <t>#.values_to_str</t>
@@ -774,7 +774,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -799,244 +799,255 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
         <v>119</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" t="s">
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
         <v>120</v>
@@ -1045,15 +1056,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
         <v>120</v>
@@ -1062,15 +1073,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
         <v>120</v>
@@ -1079,15 +1090,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>120</v>
@@ -1096,15 +1107,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
         <v>120</v>
@@ -1113,15 +1124,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>120</v>
@@ -1130,15 +1141,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
         <v>120</v>
@@ -1147,311 +1158,258 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
         <v>111</v>
       </c>
-      <c r="G29" t="s">
-        <v>133</v>
-      </c>
-      <c r="H29" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="E36" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="B30" t="s">
+    <row r="37" spans="1:11">
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" t="s">
-        <v>134</v>
-      </c>
-      <c r="H31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
         <v>122</v>
       </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="B40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="B41" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>131</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1459,62 +1417,98 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" t="s">
         <v>111</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I45" t="s">
         <v>118</v>
       </c>
-      <c r="F45" t="s">
+      <c r="J45" t="s">
         <v>129</v>
       </c>
-      <c r="G45" t="s">
+      <c r="K45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:11">
       <c r="B46" t="s">
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
         <v>113</v>
       </c>
-      <c r="E46" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" t="s">
-        <v>131</v>
-      </c>
       <c r="G46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" t="s">
+        <v>138</v>
+      </c>
+      <c r="K46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47" t="s">
         <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" t="s">
+        <v>138</v>
+      </c>
+      <c r="K47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -1522,15 +1516,27 @@
         <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1542,12 +1548,30 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" t="s">
         <v>111</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1556,112 +1580,109 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" t="s">
         <v>113</v>
       </c>
-      <c r="E51" t="s">
-        <v>124</v>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" t="s">
+        <v>123</v>
+      </c>
+      <c r="J51" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K52" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>0</v>
       </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54" t="s">
-        <v>139</v>
-      </c>
-      <c r="K54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" t="s">
-        <v>139</v>
-      </c>
-      <c r="K55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1669,30 +1690,9 @@
         <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F56" t="s">
-        <v>113</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="s">
-        <v>136</v>
-      </c>
-      <c r="I56" t="s">
-        <v>119</v>
-      </c>
-      <c r="J56" t="s">
-        <v>139</v>
-      </c>
-      <c r="K56" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
         <v>111</v>
@@ -1727,10 +1727,10 @@
         <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>132</v>
@@ -1747,10 +1747,10 @@
         <v>89</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>132</v>
@@ -1767,10 +1767,10 @@
         <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F61" t="s">
         <v>132</v>
@@ -1787,10 +1787,10 @@
         <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
         <v>132</v>
@@ -1807,10 +1807,10 @@
         <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
         <v>132</v>
@@ -1827,10 +1827,10 @@
         <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
         <v>132</v>
@@ -1839,7 +1839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:10">
       <c r="B65" t="s">
         <v>47</v>
       </c>
@@ -1847,10 +1847,10 @@
         <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
         <v>132</v>
@@ -1859,7 +1859,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:10">
       <c r="B66" t="s">
         <v>48</v>
       </c>
@@ -1867,10 +1867,10 @@
         <v>95</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
         <v>132</v>
@@ -1879,7 +1879,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:10">
       <c r="B67" t="s">
         <v>49</v>
       </c>
@@ -1887,10 +1887,10 @@
         <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
         <v>132</v>
@@ -1899,7 +1899,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:10">
       <c r="B68" t="s">
         <v>50</v>
       </c>
@@ -1907,10 +1907,10 @@
         <v>97</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -1919,7 +1919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:10">
       <c r="B69" t="s">
         <v>51</v>
       </c>
@@ -1927,10 +1927,10 @@
         <v>98</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
         <v>132</v>
@@ -1939,7 +1939,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="B70" t="s">
         <v>52</v>
       </c>
@@ -1947,10 +1947,10 @@
         <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s">
         <v>132</v>
@@ -1959,7 +1959,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:10">
       <c r="B71" t="s">
         <v>53</v>
       </c>
@@ -1967,10 +1967,10 @@
         <v>100</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F71" t="s">
         <v>132</v>
@@ -1979,7 +1979,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -1987,10 +1987,10 @@
         <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F72" t="s">
         <v>132</v>
@@ -1999,7 +1999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="B73" t="s">
         <v>55</v>
       </c>
@@ -2007,10 +2007,10 @@
         <v>102</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F73" t="s">
         <v>132</v>
@@ -2019,7 +2019,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:10">
       <c r="B74" t="s">
         <v>56</v>
       </c>
@@ -2027,10 +2027,10 @@
         <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F74" t="s">
         <v>132</v>
@@ -2039,7 +2039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -2047,60 +2047,36 @@
         <v>57</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
-      </c>
-      <c r="G76" t="s">
-        <v>135</v>
-      </c>
-      <c r="H76" t="s">
-        <v>118</v>
-      </c>
-      <c r="I76" t="s">
         <v>109</v>
       </c>
-      <c r="J76" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:10">
       <c r="B77" t="s">
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>105</v>
-      </c>
-      <c r="G77" t="s">
-        <v>136</v>
-      </c>
-      <c r="H77" t="s">
-        <v>128</v>
-      </c>
-      <c r="I77" t="s">
-        <v>137</v>
-      </c>
-      <c r="J77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>0</v>
       </c>
@@ -2108,63 +2084,57 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F79" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H79" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I79" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J79" t="s">
-        <v>109</v>
-      </c>
-      <c r="K79" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="B80" t="s">
         <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" t="s">
         <v>125</v>
       </c>
-      <c r="F80" t="s">
-        <v>112</v>
-      </c>
-      <c r="G80" t="s">
-        <v>105</v>
-      </c>
-      <c r="H80" t="s">
-        <v>136</v>
-      </c>
       <c r="I80" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J80" t="s">
-        <v>137</v>
-      </c>
-      <c r="K80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2175,7 +2145,7 @@
         <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D82" t="s">
         <v>114</v>
@@ -2207,31 +2177,31 @@
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
         <v>127</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
         <v>136</v>
       </c>
       <c r="I83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J83" t="s">
         <v>137</v>
       </c>
       <c r="K83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2242,16 +2212,31 @@
         <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85" t="s">
         <v>111</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" t="s">
+        <v>135</v>
+      </c>
+      <c r="I85" t="s">
         <v>118</v>
       </c>
-      <c r="F85" t="s">
+      <c r="J85" t="s">
         <v>109</v>
+      </c>
+      <c r="K85" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2262,13 +2247,28 @@
         <v>108</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E86" t="s">
         <v>128</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
+        <v>113</v>
+      </c>
+      <c r="G86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" t="s">
+        <v>136</v>
+      </c>
+      <c r="I86" t="s">
+        <v>125</v>
+      </c>
+      <c r="J86" t="s">
+        <v>137</v>
+      </c>
+      <c r="K86" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
